--- a/biology/Zoologie/Hottentotta_syrticus/Hottentotta_syrticus.xlsx
+++ b/biology/Zoologie/Hottentotta_syrticus/Hottentotta_syrticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottentotta syrticus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Libye[1]. Elle se rencontre vers Homs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Libye. Elle se rencontre vers Homs.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus syrticus par Borelli en 1914. Elle est placée dans le genre Buthotus par El-Hennawy en 1992[2] puis dans le genre Hottentotta par Kovařík en 1998[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus syrticus par Borelli en 1914. Elle est placée dans le genre Buthotus par El-Hennawy en 1992 puis dans le genre Hottentotta par Kovařík en 1998.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le golfe de Syrte.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Borelli, 1914 : « Contributo allo Studio della Fauna Libica. Materiali raccolti nelle zone di Misurata e Homs (1912–13) dal Dott. Alfredo Andreini, Capitano Medico. Scorpioni. » Annali del Museo Civico di Storia Naturale di Genova, sér. 3, vol. 6, no 46, p. 148–159 (texte intégral).</t>
         </is>
